--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3827.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3827.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196307380003669</v>
+        <v>5.013591766357422</v>
       </c>
       <c r="B1">
-        <v>1.503975744772986</v>
+        <v>3.701288461685181</v>
       </c>
       <c r="C1">
-        <v>2.177662903776953</v>
+        <v>3.911319017410278</v>
       </c>
       <c r="D1">
-        <v>5.215958725599273</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>2.977053054722135</v>
+        <v>3.436680316925049</v>
       </c>
     </row>
   </sheetData>
